--- a/data/trans_orig/Q02G_LAB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_LAB-Estudios-trans_orig.xlsx
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.57586020764044</v>
+        <v>2.52707170463985</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.419207609103301</v>
+        <v>3.243117347757599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.565160438808237</v>
+        <v>3.524000247987576</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.975274550770603</v>
+        <v>2.898917867150974</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.519420463095537</v>
+        <v>3.528672485183003</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.2449833414627</v>
+        <v>3.310871060598425</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.180402934113281</v>
+        <v>6.002591451933188</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.67531230679391</v>
+        <v>11.39371631089449</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.04523886773645</v>
+        <v>4.985087135506438</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.242539833248505</v>
+        <v>4.245663017865888</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.849357489481877</v>
+        <v>4.970699901565018</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.320231810488157</v>
+        <v>5.536239381709636</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.886284756071041</v>
+        <v>2.836404001283081</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.475493630587564</v>
+        <v>2.504344942037648</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.272866689335677</v>
+        <v>3.22306061700574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.403958197828138</v>
+        <v>3.423158204058417</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.324501557219873</v>
+        <v>3.318415995087614</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.28117739614798</v>
+        <v>3.267456069302219</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.936975795344186</v>
+        <v>4.825171887363341</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.616348022737113</v>
+        <v>4.583740783987041</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.856183651452536</v>
+        <v>4.826237221767594</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.909786120341383</v>
+        <v>4.870156677880307</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.626240289339363</v>
+        <v>4.681476029555951</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>4.416500491859303</v>
+        <v>4.545296823288236</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.795632979640695</v>
+        <v>1.796315136614312</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.213975015432375</v>
+        <v>1.21487633458737</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.618313562819486</v>
+        <v>1.618073233675219</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.036264227280591</v>
+        <v>3.002713615741987</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.184279644027237</v>
+        <v>2.048520370687867</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.526977622480248</v>
+        <v>2.664927293264082</v>
       </c>
     </row>
     <row r="12">
@@ -824,19 +824,19 @@
         <v>6.892902961176422</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.8859563038203</v>
+        <v>1.883750484119867</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.15083132923374</v>
+        <v>4.119557333362144</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.759689491551104</v>
+        <v>8.924977797193959</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.736914399846585</v>
+        <v>5.821254752402554</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.828322183863912</v>
+        <v>7.128359767392993</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.011062361102521</v>
+        <v>2.994944339189508</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.750538716057882</v>
+        <v>2.785341727256273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.51945519972507</v>
+        <v>3.456004052537568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.506837709001688</v>
+        <v>3.51878383678824</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.502046465612807</v>
+        <v>3.494174684769595</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.449511960241719</v>
+        <v>3.428404397786319</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.745349766592464</v>
+        <v>4.725761270661322</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.888284572871938</v>
+        <v>4.93509240934154</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.600665048500767</v>
+        <v>4.589877368671024</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.865608725588199</v>
+        <v>4.907131889950359</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.45654399168921</v>
+        <v>4.452934122182998</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4.514373653170596</v>
+        <v>4.545933128437971</v>
       </c>
     </row>
     <row r="16">
